--- a/SIRS MODELS/galicia/04_02_2020.xlsx
+++ b/SIRS MODELS/galicia/04_02_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD153991-4F75-471A-8DD3-C1F10D4F98C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2E8B8E-450D-4B0C-9E9F-B8EF03A82432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8147,8 +8147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AD426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10353,7 +10353,7 @@
         <v>2925</v>
       </c>
       <c r="K32" s="24">
-        <f t="shared" ref="K32:K36" si="52">E32</f>
+        <f>E32</f>
         <v>153</v>
       </c>
       <c r="L32" s="104">
@@ -10370,19 +10370,19 @@
       </c>
       <c r="O32" s="138"/>
       <c r="P32" s="39">
-        <f t="shared" ref="P32:P48" si="53">Y$4*((1+W$4-X$4)*(1+W$4+Z$4)-X$4)</f>
+        <f t="shared" ref="P32:P48" si="52">Y$4*((1+W$4-X$4)*(1+W$4+Z$4)-X$4)</f>
         <v>2.0891017738071737E-5</v>
       </c>
       <c r="Q32" s="38">
-        <f t="shared" ref="Q32:Q48" si="54">(1+W$4-X$4)*(1+W$4+Z$4)-Y$4*((Z$4*K31)+((I31+J31)*(1+W$4+Z$4)))</f>
+        <f t="shared" ref="Q32:Q48" si="53">(1+W$4-X$4)*(1+W$4+Z$4)-Y$4*((Z$4*K31)+((I31+J31)*(1+W$4+Z$4)))</f>
         <v>0.68125399936114273</v>
       </c>
       <c r="R32" s="38">
-        <f t="shared" ref="R32:R48" si="55">-J31*(1+W$4+Z$4)</f>
+        <f t="shared" ref="R32:R48" si="54">-J31*(1+W$4+Z$4)</f>
         <v>-2155.3375797436115</v>
       </c>
       <c r="S32" s="133">
-        <f t="shared" ref="S32:S91" si="56">INT(((-Q32+SQRT((Q32^2)-(4*P32*R32)))/(2*P32)))</f>
+        <f t="shared" ref="S32:S91" si="55">INT(((-Q32+SQRT((Q32^2)-(4*P32*R32)))/(2*P32)))</f>
         <v>2904</v>
       </c>
       <c r="T32" s="131">
@@ -10390,15 +10390,15 @@
         <v>2925</v>
       </c>
       <c r="U32" s="102">
-        <f t="shared" ref="U32" si="57">S32-T32</f>
+        <f t="shared" ref="U32" si="56">S32-T32</f>
         <v>-21</v>
       </c>
       <c r="V32" s="100">
-        <f t="shared" ref="V32" si="58">U32/T32</f>
+        <f t="shared" ref="V32" si="57">U32/T32</f>
         <v>-7.1794871794871795E-3</v>
       </c>
       <c r="W32" s="102">
-        <f t="shared" ref="W32" si="59">W31+U32</f>
+        <f t="shared" ref="W32" si="58">W31+U32</f>
         <v>-692</v>
       </c>
       <c r="X32" s="73">
@@ -10439,7 +10439,7 @@
         <v>3476</v>
       </c>
       <c r="K33" s="26">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="K32:K36" si="59">E33</f>
         <v>168</v>
       </c>
       <c r="L33" s="137">
@@ -10455,19 +10455,19 @@
         <v>15</v>
       </c>
       <c r="P33" s="71">
+        <f t="shared" si="52"/>
+        <v>2.0891017738071737E-5</v>
+      </c>
+      <c r="Q33" s="70">
         <f t="shared" si="53"/>
-        <v>2.0891017738071737E-5</v>
-      </c>
-      <c r="Q33" s="70">
+        <v>0.68198411449814689</v>
+      </c>
+      <c r="R33" s="70">
         <f t="shared" si="54"/>
-        <v>0.68198411449814689</v>
-      </c>
-      <c r="R33" s="70">
+        <v>-2399.833430053317</v>
+      </c>
+      <c r="S33" s="134">
         <f t="shared" si="55"/>
-        <v>-2399.833430053317</v>
-      </c>
-      <c r="S33" s="134">
-        <f t="shared" si="56"/>
         <v>3204</v>
       </c>
       <c r="T33" s="128">
@@ -10524,7 +10524,7 @@
         <v>3758</v>
       </c>
       <c r="K34" s="24">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>187</v>
       </c>
       <c r="L34" s="104">
@@ -10540,19 +10540,19 @@
         <v>19</v>
       </c>
       <c r="P34" s="39">
+        <f t="shared" si="52"/>
+        <v>2.0891017738071737E-5</v>
+      </c>
+      <c r="Q34" s="38">
         <f t="shared" si="53"/>
-        <v>2.0891017738071737E-5</v>
-      </c>
-      <c r="Q34" s="38">
+        <v>0.6828078646347957</v>
+      </c>
+      <c r="R34" s="38">
         <f t="shared" si="54"/>
-        <v>0.6828078646347957</v>
-      </c>
-      <c r="R34" s="38">
+        <v>-2851.9046163642156</v>
+      </c>
+      <c r="S34" s="133">
         <f t="shared" si="55"/>
-        <v>-2851.9046163642156</v>
-      </c>
-      <c r="S34" s="133">
-        <f t="shared" si="56"/>
         <v>3747</v>
       </c>
       <c r="T34" s="35">
@@ -10609,7 +10609,7 @@
         <v>4058</v>
       </c>
       <c r="K35" s="23">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>259</v>
       </c>
       <c r="L35" s="112">
@@ -10625,19 +10625,19 @@
         <v>72</v>
       </c>
       <c r="P35" s="71">
+        <f t="shared" si="52"/>
+        <v>2.0891017738071737E-5</v>
+      </c>
+      <c r="Q35" s="70">
         <f t="shared" si="53"/>
-        <v>2.0891017738071737E-5</v>
-      </c>
-      <c r="Q35" s="70">
+        <v>0.6835244998012967</v>
+      </c>
+      <c r="R35" s="70">
         <f t="shared" si="54"/>
-        <v>0.6835244998012967</v>
-      </c>
-      <c r="R35" s="70">
+        <v>-3083.2731726975612</v>
+      </c>
+      <c r="S35" s="134">
         <f t="shared" si="55"/>
-        <v>-3083.2731726975612</v>
-      </c>
-      <c r="S35" s="134">
-        <f t="shared" si="56"/>
         <v>4017</v>
       </c>
       <c r="T35" s="128">
@@ -10694,7 +10694,7 @@
         <v>4379</v>
       </c>
       <c r="K36" s="120">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>333</v>
       </c>
       <c r="L36" s="160">
@@ -10710,19 +10710,19 @@
         <v>74</v>
       </c>
       <c r="P36" s="123">
+        <f t="shared" si="52"/>
+        <v>2.0891017738071737E-5</v>
+      </c>
+      <c r="Q36" s="124">
         <f t="shared" si="53"/>
-        <v>2.0891017738071737E-5</v>
-      </c>
-      <c r="Q36" s="124">
+        <v>0.68473856181223358</v>
+      </c>
+      <c r="R36" s="124">
         <f t="shared" si="54"/>
-        <v>0.68473856181223358</v>
-      </c>
-      <c r="R36" s="124">
+        <v>-3329.4099347543115</v>
+      </c>
+      <c r="S36" s="158">
         <f t="shared" si="55"/>
-        <v>-3329.4099347543115</v>
-      </c>
-      <c r="S36" s="158">
-        <f t="shared" si="56"/>
         <v>4298</v>
       </c>
       <c r="T36" s="129">
@@ -10798,19 +10798,19 @@
         <v>85</v>
       </c>
       <c r="P37" s="149">
+        <f t="shared" si="52"/>
+        <v>2.0891017738071737E-5</v>
+      </c>
+      <c r="Q37" s="150">
         <f t="shared" si="53"/>
-        <v>2.0891017738071737E-5</v>
-      </c>
-      <c r="Q37" s="150">
+        <v>0.68571053844968055</v>
+      </c>
+      <c r="R37" s="150">
         <f t="shared" si="54"/>
-        <v>0.68571053844968055</v>
-      </c>
-      <c r="R37" s="150">
+        <v>-3592.7762701550346</v>
+      </c>
+      <c r="S37" s="151">
         <f t="shared" si="55"/>
-        <v>-3592.7762701550346</v>
-      </c>
-      <c r="S37" s="151">
-        <f t="shared" si="56"/>
         <v>4595</v>
       </c>
       <c r="T37" s="152"/>
@@ -10871,19 +10871,19 @@
         <v>104</v>
       </c>
       <c r="P38" s="39">
+        <f t="shared" si="52"/>
+        <v>2.0891017738071737E-5</v>
+      </c>
+      <c r="Q38" s="38">
         <f t="shared" si="53"/>
-        <v>2.0891017738071737E-5</v>
-      </c>
-      <c r="Q38" s="38">
+        <v>0.68769717036655353</v>
+      </c>
+      <c r="R38" s="38">
         <f t="shared" si="54"/>
-        <v>0.68769717036655353</v>
-      </c>
-      <c r="R38" s="38">
+        <v>-3769.9947388358951</v>
+      </c>
+      <c r="S38" s="12">
         <f t="shared" si="55"/>
-        <v>-3769.9947388358951</v>
-      </c>
-      <c r="S38" s="12">
-        <f t="shared" si="56"/>
         <v>4786</v>
       </c>
       <c r="T38" s="131"/>
@@ -10944,19 +10944,19 @@
         <v>127</v>
       </c>
       <c r="P39" s="71">
+        <f t="shared" si="52"/>
+        <v>2.0891017738071737E-5</v>
+      </c>
+      <c r="Q39" s="70">
         <f t="shared" si="53"/>
-        <v>2.0891017738071737E-5</v>
-      </c>
-      <c r="Q39" s="70">
+        <v>0.6901490669320397</v>
+      </c>
+      <c r="R39" s="70">
         <f t="shared" si="54"/>
-        <v>0.6901490669320397</v>
-      </c>
-      <c r="R39" s="70">
+        <v>-3926.7018106786927</v>
+      </c>
+      <c r="S39" s="11">
         <f t="shared" si="55"/>
-        <v>-3926.7018106786927</v>
-      </c>
-      <c r="S39" s="11">
-        <f t="shared" si="56"/>
         <v>4948</v>
       </c>
       <c r="T39" s="128"/>
@@ -11017,19 +11017,19 @@
         <v>155</v>
       </c>
       <c r="P40" s="39">
+        <f t="shared" si="52"/>
+        <v>2.0891017738071737E-5</v>
+      </c>
+      <c r="Q40" s="38">
         <f t="shared" si="53"/>
-        <v>2.0891017738071737E-5</v>
-      </c>
-      <c r="Q40" s="38">
+        <v>0.69318953615072165</v>
+      </c>
+      <c r="R40" s="38">
         <f t="shared" si="54"/>
-        <v>0.69318953615072165</v>
-      </c>
-      <c r="R40" s="38">
+        <v>-4059.6156621893379</v>
+      </c>
+      <c r="S40" s="12">
         <f t="shared" si="55"/>
-        <v>-4059.6156621893379</v>
-      </c>
-      <c r="S40" s="12">
-        <f t="shared" si="56"/>
         <v>5078</v>
       </c>
       <c r="T40" s="131"/>
@@ -11090,19 +11090,19 @@
         <v>190</v>
       </c>
       <c r="P41" s="71">
+        <f t="shared" si="52"/>
+        <v>2.0891017738071737E-5</v>
+      </c>
+      <c r="Q41" s="70">
         <f t="shared" si="53"/>
-        <v>2.0891017738071737E-5</v>
-      </c>
-      <c r="Q41" s="70">
+        <v>0.69696747614253851</v>
+      </c>
+      <c r="R41" s="70">
         <f t="shared" si="54"/>
-        <v>0.69696747614253851</v>
-      </c>
-      <c r="R41" s="70">
+        <v>-4166.2749257472633</v>
+      </c>
+      <c r="S41" s="11">
         <f t="shared" si="55"/>
-        <v>-4166.2749257472633</v>
-      </c>
-      <c r="S41" s="11">
-        <f t="shared" si="56"/>
         <v>5174</v>
       </c>
       <c r="T41" s="128"/>
@@ -11163,19 +11163,19 @@
         <v>231</v>
       </c>
       <c r="P42" s="39">
+        <f t="shared" si="52"/>
+        <v>2.0891017738071737E-5</v>
+      </c>
+      <c r="Q42" s="38">
         <f t="shared" si="53"/>
-        <v>2.0891017738071737E-5</v>
-      </c>
-      <c r="Q42" s="38">
+        <v>0.70162012262866991</v>
+      </c>
+      <c r="R42" s="38">
         <f t="shared" si="54"/>
-        <v>0.70162012262866991</v>
-      </c>
-      <c r="R42" s="38">
+        <v>-4245.0386896054233</v>
+      </c>
+      <c r="S42" s="12">
         <f t="shared" si="55"/>
-        <v>-4245.0386896054233</v>
-      </c>
-      <c r="S42" s="12">
-        <f t="shared" si="56"/>
         <v>5234</v>
       </c>
       <c r="T42" s="131"/>
@@ -11236,19 +11236,19 @@
         <v>282</v>
       </c>
       <c r="P43" s="71">
+        <f t="shared" si="52"/>
+        <v>2.0891017738071737E-5</v>
+      </c>
+      <c r="Q43" s="70">
         <f t="shared" si="53"/>
-        <v>2.0891017738071737E-5</v>
-      </c>
-      <c r="Q43" s="70">
+        <v>0.70734291138756866</v>
+      </c>
+      <c r="R43" s="70">
         <f t="shared" si="54"/>
-        <v>0.70734291138756866</v>
-      </c>
-      <c r="R43" s="70">
+        <v>-4294.2660420167731</v>
+      </c>
+      <c r="S43" s="11">
         <f t="shared" si="55"/>
-        <v>-4294.2660420167731</v>
-      </c>
-      <c r="S43" s="11">
-        <f t="shared" si="56"/>
         <v>5255</v>
       </c>
       <c r="T43" s="128"/>
@@ -11309,19 +11309,19 @@
         <v>344</v>
       </c>
       <c r="P44" s="39">
+        <f t="shared" si="52"/>
+        <v>2.0891017738071737E-5</v>
+      </c>
+      <c r="Q44" s="38">
         <f t="shared" si="53"/>
-        <v>2.0891017738071737E-5</v>
-      </c>
-      <c r="Q44" s="38">
+        <v>0.71437079602964071</v>
+      </c>
+      <c r="R44" s="38">
         <f t="shared" si="54"/>
-        <v>0.71437079602964071</v>
-      </c>
-      <c r="R44" s="38">
+        <v>-4311.4956153607463</v>
+      </c>
+      <c r="S44" s="12">
         <f t="shared" si="55"/>
-        <v>-4311.4956153607463</v>
-      </c>
-      <c r="S44" s="12">
-        <f t="shared" si="56"/>
         <v>5234</v>
       </c>
       <c r="T44" s="131"/>
@@ -11382,19 +11382,19 @@
         <v>419</v>
       </c>
       <c r="P45" s="71">
+        <f t="shared" si="52"/>
+        <v>2.0891017738071737E-5</v>
+      </c>
+      <c r="Q45" s="70">
         <f t="shared" si="53"/>
-        <v>2.0891017738071737E-5</v>
-      </c>
-      <c r="Q45" s="70">
+        <v>0.72298526782380579</v>
+      </c>
+      <c r="R45" s="70">
         <f t="shared" si="54"/>
-        <v>0.72298526782380579</v>
-      </c>
-      <c r="R45" s="70">
+        <v>-4294.2660420167731</v>
+      </c>
+      <c r="S45" s="11">
         <f t="shared" si="55"/>
-        <v>-4294.2660420167731</v>
-      </c>
-      <c r="S45" s="11">
-        <f t="shared" si="56"/>
         <v>5167</v>
       </c>
       <c r="T45" s="128"/>
@@ -11455,19 +11455,19 @@
         <v>510</v>
       </c>
       <c r="P46" s="39">
+        <f t="shared" si="52"/>
+        <v>2.0891017738071737E-5</v>
+      </c>
+      <c r="Q46" s="38">
         <f t="shared" si="53"/>
-        <v>2.0891017738071737E-5</v>
-      </c>
-      <c r="Q46" s="38">
+        <v>0.73356089335601116</v>
+      </c>
+      <c r="R46" s="38">
         <f t="shared" si="54"/>
-        <v>0.73356089335601116</v>
-      </c>
-      <c r="R46" s="38">
+        <v>-4239.2954984907656</v>
+      </c>
+      <c r="S46" s="12">
         <f t="shared" si="55"/>
-        <v>-4239.2954984907656</v>
-      </c>
-      <c r="S46" s="12">
-        <f t="shared" si="56"/>
         <v>5052</v>
       </c>
       <c r="T46" s="131"/>
@@ -11529,19 +11529,19 @@
         <v>621</v>
       </c>
       <c r="P47" s="71">
+        <f t="shared" si="52"/>
+        <v>2.0891017738071737E-5</v>
+      </c>
+      <c r="Q47" s="70">
         <f t="shared" si="53"/>
-        <v>2.0891017738071737E-5</v>
-      </c>
-      <c r="Q47" s="70">
+        <v>0.74650711447195794</v>
+      </c>
+      <c r="R47" s="70">
         <f t="shared" si="54"/>
-        <v>0.74650711447195794</v>
-      </c>
-      <c r="R47" s="70">
+        <v>-4144.943073035678</v>
+      </c>
+      <c r="S47" s="11">
         <f t="shared" si="55"/>
-        <v>-4144.943073035678</v>
-      </c>
-      <c r="S47" s="11">
-        <f t="shared" si="56"/>
         <v>4884</v>
       </c>
       <c r="T47" s="128"/>
@@ -11602,19 +11602,19 @@
         <v>757</v>
       </c>
       <c r="P48" s="39">
+        <f t="shared" si="52"/>
+        <v>2.0891017738071737E-5</v>
+      </c>
+      <c r="Q48" s="38">
         <f t="shared" si="53"/>
-        <v>2.0891017738071737E-5</v>
-      </c>
-      <c r="Q48" s="38">
+        <v>0.76233573347877337</v>
+      </c>
+      <c r="R48" s="38">
         <f t="shared" si="54"/>
-        <v>0.76233573347877337</v>
-      </c>
-      <c r="R48" s="38">
+        <v>-4007.106486283898</v>
+      </c>
+      <c r="S48" s="12">
         <f t="shared" si="55"/>
-        <v>-4007.106486283898</v>
-      </c>
-      <c r="S48" s="12">
-        <f t="shared" si="56"/>
         <v>4661</v>
       </c>
       <c r="T48" s="131"/>
@@ -11687,7 +11687,7 @@
         <v>-3824.1448264883797</v>
       </c>
       <c r="S49" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>4379</v>
       </c>
       <c r="T49" s="128"/>
@@ -11760,7 +11760,7 @@
         <v>-3592.7762701550346</v>
       </c>
       <c r="S50" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>4038</v>
       </c>
       <c r="T50" s="131"/>
@@ -11833,7 +11833,7 @@
         <v>-3313.0008172838616</v>
       </c>
       <c r="S51" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>3640</v>
       </c>
       <c r="T51" s="128"/>
@@ -11906,7 +11906,7 @@
         <v>-2986.459379621906</v>
       </c>
       <c r="S52" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>3190</v>
       </c>
       <c r="T52" s="131"/>
@@ -11979,7 +11979,7 @@
         <v>-2617.2542365367799</v>
       </c>
       <c r="S53" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>2702</v>
       </c>
       <c r="T53" s="128"/>
@@ -12052,7 +12052,7 @@
         <v>-2216.8717702577992</v>
       </c>
       <c r="S54" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>2194</v>
       </c>
       <c r="T54" s="131"/>
@@ -12125,7 +12125,7 @@
         <v>-1800.0801865083686</v>
       </c>
       <c r="S55" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1692</v>
       </c>
       <c r="T55" s="128"/>
@@ -12198,7 +12198,7 @@
         <v>-1388.2113380000726</v>
       </c>
       <c r="S56" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1226</v>
       </c>
       <c r="T56" s="131"/>
@@ -12271,7 +12271,7 @@
         <v>-1005.878900938587</v>
       </c>
       <c r="S57" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>825</v>
       </c>
       <c r="T57" s="128"/>
@@ -12344,7 +12344,7 @@
         <v>-676.87609565606385</v>
       </c>
       <c r="S58" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>510</v>
       </c>
       <c r="T58" s="131"/>
@@ -12417,7 +12417,7 @@
         <v>-418.43249549647584</v>
       </c>
       <c r="S59" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>286</v>
       </c>
       <c r="T59" s="128"/>
@@ -12490,7 +12490,7 @@
         <v>-234.65037982743544</v>
       </c>
       <c r="S60" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>143</v>
       </c>
       <c r="T60" s="131"/>
@@ -12563,7 +12563,7 @@
         <v>-117.32518991371772</v>
       </c>
       <c r="S61" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>63</v>
       </c>
       <c r="T61" s="128"/>
@@ -12636,7 +12636,7 @@
         <v>-51.688720031917597</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>24</v>
       </c>
       <c r="T62" s="131"/>
@@ -12709,7 +12709,7 @@
         <v>-19.69094096454004</v>
       </c>
       <c r="S63" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>8</v>
       </c>
       <c r="T63" s="128"/>
@@ -12782,7 +12782,7 @@
         <v>-6.5636469881800128</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>2</v>
       </c>
       <c r="T64" s="131"/>
@@ -12855,7 +12855,7 @@
         <v>-1.6409117470450032</v>
       </c>
       <c r="S65" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T65" s="128"/>
@@ -12928,7 +12928,7 @@
         <v>0</v>
       </c>
       <c r="S66" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T66" s="131"/>
@@ -13001,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T67" s="128"/>
@@ -13074,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="S68" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T68" s="131"/>
@@ -13147,7 +13147,7 @@
         <v>0</v>
       </c>
       <c r="S69" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T69" s="128"/>
@@ -13220,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="S70" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T70" s="131"/>
@@ -13293,7 +13293,7 @@
         <v>0</v>
       </c>
       <c r="S71" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T71" s="128"/>
@@ -13366,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="S72" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T72" s="131"/>
@@ -13439,7 +13439,7 @@
         <v>0</v>
       </c>
       <c r="S73" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T73" s="128"/>
@@ -13512,7 +13512,7 @@
         <v>0</v>
       </c>
       <c r="S74" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T74" s="131"/>
@@ -13585,7 +13585,7 @@
         <v>0</v>
       </c>
       <c r="S75" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T75" s="128"/>
@@ -13658,7 +13658,7 @@
         <v>0</v>
       </c>
       <c r="S76" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T76" s="131"/>
@@ -13731,7 +13731,7 @@
         <v>0</v>
       </c>
       <c r="S77" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T77" s="128"/>
@@ -13804,7 +13804,7 @@
         <v>0</v>
       </c>
       <c r="S78" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T78" s="131"/>
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="S79" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T79" s="128"/>
@@ -13950,7 +13950,7 @@
         <v>0</v>
       </c>
       <c r="S80" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T80" s="131"/>
@@ -14023,7 +14023,7 @@
         <v>0</v>
       </c>
       <c r="S81" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T81" s="128"/>
@@ -14096,7 +14096,7 @@
         <v>0</v>
       </c>
       <c r="S82" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T82" s="131"/>
@@ -14169,7 +14169,7 @@
         <v>0</v>
       </c>
       <c r="S83" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T83" s="128"/>
@@ -14242,7 +14242,7 @@
         <v>0</v>
       </c>
       <c r="S84" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T84" s="131"/>
@@ -14315,7 +14315,7 @@
         <v>0</v>
       </c>
       <c r="S85" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T85" s="128"/>
@@ -14388,7 +14388,7 @@
         <v>0</v>
       </c>
       <c r="S86" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T86" s="131"/>
@@ -14461,7 +14461,7 @@
         <v>0</v>
       </c>
       <c r="S87" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T87" s="128"/>
@@ -14534,7 +14534,7 @@
         <v>0</v>
       </c>
       <c r="S88" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T88" s="131"/>
@@ -14607,7 +14607,7 @@
         <v>0</v>
       </c>
       <c r="S89" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T89" s="128"/>
@@ -14680,7 +14680,7 @@
         <v>0</v>
       </c>
       <c r="S90" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T90" s="131"/>
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="S91" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T91" s="128"/>

--- a/SIRS MODELS/galicia/04_02_2020.xlsx
+++ b/SIRS MODELS/galicia/04_02_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2E8B8E-450D-4B0C-9E9F-B8EF03A82432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01EFEB4-6AEE-4B43-8645-2C1E7580DDAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1525,612 +1525,612 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$4:$B$204</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$4:$C$204</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="201"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>43984</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>43987</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>43988</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>101</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>102</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>103</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>104</c:v>
+                  <c:v>43995</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>105</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>106</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>107</c:v>
+                  <c:v>43998</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>108</c:v>
+                  <c:v>43999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>109</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>110</c:v>
+                  <c:v>44001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>111</c:v>
+                  <c:v>44002</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>112</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>113</c:v>
+                  <c:v>44004</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>114</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>115</c:v>
+                  <c:v>44006</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>116</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>117</c:v>
+                  <c:v>44008</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>118</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>119</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>120</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>121</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>122</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>123</c:v>
+                  <c:v>44014</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>124</c:v>
+                  <c:v>44015</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>125</c:v>
+                  <c:v>44016</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>126</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>127</c:v>
+                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>128</c:v>
+                  <c:v>44019</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>129</c:v>
+                  <c:v>44020</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>130</c:v>
+                  <c:v>44021</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>131</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>132</c:v>
+                  <c:v>44023</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>133</c:v>
+                  <c:v>44024</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>134</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>135</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>136</c:v>
+                  <c:v>44027</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>137</c:v>
+                  <c:v>44028</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>138</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>139</c:v>
+                  <c:v>44030</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>140</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>141</c:v>
+                  <c:v>44032</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>142</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>143</c:v>
+                  <c:v>44034</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>144</c:v>
+                  <c:v>44035</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>145</c:v>
+                  <c:v>44036</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>146</c:v>
+                  <c:v>44037</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>147</c:v>
+                  <c:v>44038</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>148</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>149</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>150</c:v>
+                  <c:v>44041</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>151</c:v>
+                  <c:v>44042</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>152</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>153</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>154</c:v>
+                  <c:v>44045</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>155</c:v>
+                  <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>156</c:v>
+                  <c:v>44047</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>157</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>158</c:v>
+                  <c:v>44049</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>159</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>160</c:v>
+                  <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>161</c:v>
+                  <c:v>44052</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>162</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>163</c:v>
+                  <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>164</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>165</c:v>
+                  <c:v>44056</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>166</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>167</c:v>
+                  <c:v>44058</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>168</c:v>
+                  <c:v>44059</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>169</c:v>
+                  <c:v>44060</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>170</c:v>
+                  <c:v>44061</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>171</c:v>
+                  <c:v>44062</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>172</c:v>
+                  <c:v>44063</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>173</c:v>
+                  <c:v>44064</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>174</c:v>
+                  <c:v>44065</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>175</c:v>
+                  <c:v>44066</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>176</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>177</c:v>
+                  <c:v>44068</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>178</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>179</c:v>
+                  <c:v>44070</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>180</c:v>
+                  <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>181</c:v>
+                  <c:v>44072</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>182</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>183</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>184</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>185</c:v>
+                  <c:v>44076</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>186</c:v>
+                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>187</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>188</c:v>
+                  <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>189</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>190</c:v>
+                  <c:v>44081</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>191</c:v>
+                  <c:v>44082</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>192</c:v>
+                  <c:v>44083</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>193</c:v>
+                  <c:v>44084</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>194</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>195</c:v>
+                  <c:v>44086</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>196</c:v>
+                  <c:v>44087</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>197</c:v>
+                  <c:v>44088</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>198</c:v>
+                  <c:v>44089</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>199</c:v>
+                  <c:v>44090</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>200</c:v>
+                  <c:v>44091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2774,612 +2774,612 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$4:$B$204</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$4:$C$204</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="201"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>43984</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>43987</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>43988</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>101</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>102</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>103</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>104</c:v>
+                  <c:v>43995</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>105</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>106</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>107</c:v>
+                  <c:v>43998</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>108</c:v>
+                  <c:v>43999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>109</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>110</c:v>
+                  <c:v>44001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>111</c:v>
+                  <c:v>44002</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>112</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>113</c:v>
+                  <c:v>44004</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>114</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>115</c:v>
+                  <c:v>44006</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>116</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>117</c:v>
+                  <c:v>44008</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>118</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>119</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>120</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>121</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>122</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>123</c:v>
+                  <c:v>44014</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>124</c:v>
+                  <c:v>44015</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>125</c:v>
+                  <c:v>44016</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>126</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>127</c:v>
+                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>128</c:v>
+                  <c:v>44019</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>129</c:v>
+                  <c:v>44020</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>130</c:v>
+                  <c:v>44021</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>131</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>132</c:v>
+                  <c:v>44023</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>133</c:v>
+                  <c:v>44024</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>134</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>135</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>136</c:v>
+                  <c:v>44027</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>137</c:v>
+                  <c:v>44028</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>138</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>139</c:v>
+                  <c:v>44030</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>140</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>141</c:v>
+                  <c:v>44032</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>142</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>143</c:v>
+                  <c:v>44034</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>144</c:v>
+                  <c:v>44035</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>145</c:v>
+                  <c:v>44036</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>146</c:v>
+                  <c:v>44037</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>147</c:v>
+                  <c:v>44038</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>148</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>149</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>150</c:v>
+                  <c:v>44041</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>151</c:v>
+                  <c:v>44042</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>152</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>153</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>154</c:v>
+                  <c:v>44045</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>155</c:v>
+                  <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>156</c:v>
+                  <c:v>44047</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>157</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>158</c:v>
+                  <c:v>44049</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>159</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>160</c:v>
+                  <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>161</c:v>
+                  <c:v>44052</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>162</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>163</c:v>
+                  <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>164</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>165</c:v>
+                  <c:v>44056</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>166</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>167</c:v>
+                  <c:v>44058</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>168</c:v>
+                  <c:v>44059</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>169</c:v>
+                  <c:v>44060</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>170</c:v>
+                  <c:v>44061</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>171</c:v>
+                  <c:v>44062</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>172</c:v>
+                  <c:v>44063</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>173</c:v>
+                  <c:v>44064</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>174</c:v>
+                  <c:v>44065</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>175</c:v>
+                  <c:v>44066</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>176</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>177</c:v>
+                  <c:v>44068</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>178</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>179</c:v>
+                  <c:v>44070</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>180</c:v>
+                  <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>181</c:v>
+                  <c:v>44072</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>182</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>183</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>184</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>185</c:v>
+                  <c:v>44076</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>186</c:v>
+                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>187</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>188</c:v>
+                  <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>189</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>190</c:v>
+                  <c:v>44081</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>191</c:v>
+                  <c:v>44082</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>192</c:v>
+                  <c:v>44083</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>193</c:v>
+                  <c:v>44084</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>194</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>195</c:v>
+                  <c:v>44086</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>196</c:v>
+                  <c:v>44087</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>197</c:v>
+                  <c:v>44088</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>198</c:v>
+                  <c:v>44089</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>199</c:v>
+                  <c:v>44090</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>200</c:v>
+                  <c:v>44091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4018,8 +4018,8 @@
         <c:axId val="1356387871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="70"/>
-          <c:min val="0"/>
+          <c:max val="43956"/>
+          <c:min val="43891"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4071,7 +4071,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Days since MARCH 1st</a:t>
+                  <a:t>DATE</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4105,7 +4105,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4145,13 +4145,13 @@
         <c:crossAx val="1353300159"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1353300159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4201,6 +4201,14 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>INFECTED</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
                 <a:r>
                   <a:rPr lang="es-ES"/>
                   <a:t>POPULATION</a:t>
@@ -4447,594 +4455,583 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$17:$B$204</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$17:$C$204</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="188"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>34</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>38</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>39</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>40</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>46</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>47</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>48</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>49</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>51</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>52</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>53</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>54</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>55</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>56</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>57</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>58</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>59</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>60</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>61</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>62</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>63</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>64</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>65</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>66</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>67</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>68</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>69</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>70</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>71</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>72</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>73</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>74</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>75</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>76</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>77</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>78</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>79</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>80</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>81</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>82</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>83</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>84</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>85</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>86</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>87</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>88</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>89</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>90</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>91</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>92</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>93</c:v>
+                  <c:v>43984</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>94</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>95</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>96</c:v>
+                  <c:v>43987</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>97</c:v>
+                  <c:v>43988</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>98</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>99</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>100</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>101</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>102</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>103</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>104</c:v>
+                  <c:v>43995</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>105</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>106</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>107</c:v>
+                  <c:v>43998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>108</c:v>
+                  <c:v>43999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>109</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>110</c:v>
+                  <c:v>44001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>111</c:v>
+                  <c:v>44002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>112</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>113</c:v>
+                  <c:v>44004</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>114</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>115</c:v>
+                  <c:v>44006</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>116</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>117</c:v>
+                  <c:v>44008</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>118</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>119</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>120</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>121</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>122</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>123</c:v>
+                  <c:v>44014</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>124</c:v>
+                  <c:v>44015</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>125</c:v>
+                  <c:v>44016</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>126</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>127</c:v>
+                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>128</c:v>
+                  <c:v>44019</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>129</c:v>
+                  <c:v>44020</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>130</c:v>
+                  <c:v>44021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>131</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>132</c:v>
+                  <c:v>44023</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>133</c:v>
+                  <c:v>44024</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>134</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>135</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>136</c:v>
+                  <c:v>44027</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>137</c:v>
+                  <c:v>44028</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>138</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>139</c:v>
+                  <c:v>44030</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>140</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>141</c:v>
+                  <c:v>44032</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>142</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>143</c:v>
+                  <c:v>44034</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>144</c:v>
+                  <c:v>44035</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>145</c:v>
+                  <c:v>44036</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>146</c:v>
+                  <c:v>44037</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>147</c:v>
+                  <c:v>44038</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>148</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>149</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>150</c:v>
+                  <c:v>44041</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>151</c:v>
+                  <c:v>44042</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>152</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>153</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>154</c:v>
+                  <c:v>44045</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>155</c:v>
+                  <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>156</c:v>
+                  <c:v>44047</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>157</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>158</c:v>
+                  <c:v>44049</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>159</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>160</c:v>
+                  <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>161</c:v>
+                  <c:v>44052</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>162</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>163</c:v>
+                  <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>164</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>165</c:v>
+                  <c:v>44056</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>166</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>167</c:v>
+                  <c:v>44058</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>168</c:v>
+                  <c:v>44059</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>169</c:v>
+                  <c:v>44060</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>170</c:v>
+                  <c:v>44061</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>171</c:v>
+                  <c:v>44062</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>172</c:v>
+                  <c:v>44063</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>173</c:v>
+                  <c:v>44064</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>174</c:v>
+                  <c:v>44065</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>175</c:v>
+                  <c:v>44066</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>176</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>177</c:v>
+                  <c:v>44068</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>178</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>179</c:v>
+                  <c:v>44070</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>180</c:v>
+                  <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>181</c:v>
+                  <c:v>44072</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>182</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>183</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>184</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>185</c:v>
+                  <c:v>44076</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>186</c:v>
+                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>187</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>188</c:v>
+                  <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>189</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>190</c:v>
+                  <c:v>44081</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>191</c:v>
+                  <c:v>44082</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>192</c:v>
+                  <c:v>44083</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>193</c:v>
+                  <c:v>44084</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>194</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>195</c:v>
+                  <c:v>44086</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>196</c:v>
+                  <c:v>44087</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>197</c:v>
+                  <c:v>44088</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>198</c:v>
+                  <c:v>44089</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>199</c:v>
+                  <c:v>44090</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>200</c:v>
+                  <c:v>44091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5627,9 +5624,7 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5651,573 +5646,573 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$17:$B$204</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$17:$C$204</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="188"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>34</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>38</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>39</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>40</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>46</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>47</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>48</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>49</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>51</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>52</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>53</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>54</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>55</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>56</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>57</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>58</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>59</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>60</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>61</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>62</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>63</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>64</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>65</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>66</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>67</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>68</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>69</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>70</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>71</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>72</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>73</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>74</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>75</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>76</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>77</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>78</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>79</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>80</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>81</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>82</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>83</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>84</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>85</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>86</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>87</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>88</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>89</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>90</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>91</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>92</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>93</c:v>
+                  <c:v>43984</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>94</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>95</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>96</c:v>
+                  <c:v>43987</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>97</c:v>
+                  <c:v>43988</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>98</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>99</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>100</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>101</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>102</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>103</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>104</c:v>
+                  <c:v>43995</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>105</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>106</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>107</c:v>
+                  <c:v>43998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>108</c:v>
+                  <c:v>43999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>109</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>110</c:v>
+                  <c:v>44001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>111</c:v>
+                  <c:v>44002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>112</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>113</c:v>
+                  <c:v>44004</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>114</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>115</c:v>
+                  <c:v>44006</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>116</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>117</c:v>
+                  <c:v>44008</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>118</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>119</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>120</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>121</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>122</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>123</c:v>
+                  <c:v>44014</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>124</c:v>
+                  <c:v>44015</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>125</c:v>
+                  <c:v>44016</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>126</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>127</c:v>
+                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>128</c:v>
+                  <c:v>44019</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>129</c:v>
+                  <c:v>44020</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>130</c:v>
+                  <c:v>44021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>131</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>132</c:v>
+                  <c:v>44023</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>133</c:v>
+                  <c:v>44024</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>134</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>135</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>136</c:v>
+                  <c:v>44027</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>137</c:v>
+                  <c:v>44028</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>138</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>139</c:v>
+                  <c:v>44030</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>140</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>141</c:v>
+                  <c:v>44032</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>142</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>143</c:v>
+                  <c:v>44034</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>144</c:v>
+                  <c:v>44035</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>145</c:v>
+                  <c:v>44036</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>146</c:v>
+                  <c:v>44037</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>147</c:v>
+                  <c:v>44038</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>148</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>149</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>150</c:v>
+                  <c:v>44041</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>151</c:v>
+                  <c:v>44042</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>152</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>153</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>154</c:v>
+                  <c:v>44045</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>155</c:v>
+                  <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>156</c:v>
+                  <c:v>44047</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>157</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>158</c:v>
+                  <c:v>44049</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>159</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>160</c:v>
+                  <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>161</c:v>
+                  <c:v>44052</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>162</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>163</c:v>
+                  <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>164</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>165</c:v>
+                  <c:v>44056</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>166</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>167</c:v>
+                  <c:v>44058</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>168</c:v>
+                  <c:v>44059</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>169</c:v>
+                  <c:v>44060</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>170</c:v>
+                  <c:v>44061</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>171</c:v>
+                  <c:v>44062</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>172</c:v>
+                  <c:v>44063</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>173</c:v>
+                  <c:v>44064</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>174</c:v>
+                  <c:v>44065</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>175</c:v>
+                  <c:v>44066</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>176</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>177</c:v>
+                  <c:v>44068</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>178</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>179</c:v>
+                  <c:v>44070</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>180</c:v>
+                  <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>181</c:v>
+                  <c:v>44072</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>182</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>183</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>184</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>185</c:v>
+                  <c:v>44076</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>186</c:v>
+                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>187</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>188</c:v>
+                  <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>189</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>190</c:v>
+                  <c:v>44081</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>191</c:v>
+                  <c:v>44082</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>192</c:v>
+                  <c:v>44083</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>193</c:v>
+                  <c:v>44084</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>194</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>195</c:v>
+                  <c:v>44086</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>196</c:v>
+                  <c:v>44087</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>197</c:v>
+                  <c:v>44088</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>198</c:v>
+                  <c:v>44089</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>199</c:v>
+                  <c:v>44090</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>200</c:v>
+                  <c:v>44091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6313,8 +6308,8 @@
         <c:axId val="2005682768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="38"/>
-          <c:min val="13"/>
+          <c:max val="43926"/>
+          <c:min val="43904"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6367,7 +6362,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>DAYS SINCE MARCH 1ST</a:t>
+                  <a:t>DATE</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6401,7 +6396,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6498,7 +6493,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>INFECTED</a:t>
+                  <a:t>INFECTED POPULATION</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7778,14 +7773,14 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>3799</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>200703</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>605115</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:rowOff>183931</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8147,8 +8142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AD426"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10439,7 +10434,7 @@
         <v>3476</v>
       </c>
       <c r="K33" s="26">
-        <f t="shared" ref="K32:K36" si="59">E33</f>
+        <f t="shared" ref="K33:K36" si="59">E33</f>
         <v>168</v>
       </c>
       <c r="L33" s="137">
@@ -10762,8 +10757,8 @@
         <v>418</v>
       </c>
       <c r="F37" s="144">
-        <f t="shared" ref="F37:F100" si="76">D37*(F$35/D$35)</f>
-        <v>131.24323104693141</v>
+        <f>D37*(F$36/D$36)</f>
+        <v>135.79925650557621</v>
       </c>
       <c r="G37" s="145">
         <f t="shared" si="69"/>
@@ -10774,15 +10769,15 @@
         <v>1.0446096654275092</v>
       </c>
       <c r="I37" s="142">
-        <f t="shared" ref="I37:I58" si="77">INT((Z$4*K37+I36)/(1+Y$4*J37))</f>
+        <f t="shared" ref="I37:I58" si="76">INT((Z$4*K37+I36)/(1+Y$4*J37))</f>
         <v>1837</v>
       </c>
       <c r="J37" s="147">
-        <f t="shared" ref="J37:J58" si="78">S37</f>
+        <f t="shared" ref="J37:J58" si="77">S37</f>
         <v>4595</v>
       </c>
       <c r="K37" s="148">
-        <f t="shared" ref="K37:K58" si="79">INT((X$4*J37+K36)/(1+W$4+Z$4))</f>
+        <f t="shared" ref="K37:K58" si="78">INT((X$4*J37+K36)/(1+W$4+Z$4))</f>
         <v>418</v>
       </c>
       <c r="L37" s="142">
@@ -10835,8 +10830,8 @@
         <v>522</v>
       </c>
       <c r="F38" s="24">
-        <f t="shared" si="76"/>
-        <v>136.19923285198556</v>
+        <f t="shared" ref="F38:F101" si="79">D38*(F$36/D$36)</f>
+        <v>140.92730276745147</v>
       </c>
       <c r="G38" s="92">
         <f t="shared" si="69"/>
@@ -10847,15 +10842,15 @@
         <v>1.0377619612495057</v>
       </c>
       <c r="I38" s="35">
+        <f t="shared" si="76"/>
+        <v>1552</v>
+      </c>
+      <c r="J38" s="25">
         <f t="shared" si="77"/>
-        <v>1552</v>
-      </c>
-      <c r="J38" s="25">
+        <v>4786</v>
+      </c>
+      <c r="K38" s="24">
         <f t="shared" si="78"/>
-        <v>4786</v>
-      </c>
-      <c r="K38" s="24">
-        <f t="shared" si="79"/>
         <v>522</v>
       </c>
       <c r="L38" s="35">
@@ -10908,8 +10903,8 @@
         <v>649</v>
       </c>
       <c r="F39" s="26">
-        <f t="shared" si="76"/>
-        <v>140.40275270758124</v>
+        <f t="shared" si="79"/>
+        <v>145.27674514663363</v>
       </c>
       <c r="G39" s="91">
         <f t="shared" si="69"/>
@@ -10920,15 +10915,15 @@
         <v>1.03086302152791</v>
       </c>
       <c r="I39" s="18">
+        <f t="shared" si="76"/>
+        <v>1273</v>
+      </c>
+      <c r="J39" s="22">
         <f t="shared" si="77"/>
-        <v>1273</v>
-      </c>
-      <c r="J39" s="22">
+        <v>4948</v>
+      </c>
+      <c r="K39" s="26">
         <f t="shared" si="78"/>
-        <v>4948</v>
-      </c>
-      <c r="K39" s="26">
-        <f t="shared" si="79"/>
         <v>649</v>
       </c>
       <c r="L39" s="18">
@@ -10981,8 +10976,8 @@
         <v>804</v>
       </c>
       <c r="F40" s="24">
-        <f t="shared" si="76"/>
-        <v>143.7759476534296</v>
+        <f t="shared" si="79"/>
+        <v>148.76703841387857</v>
       </c>
       <c r="G40" s="92">
         <f t="shared" si="69"/>
@@ -10993,15 +10988,15 @@
         <v>1.0240251339863242</v>
       </c>
       <c r="I40" s="35">
+        <f t="shared" si="76"/>
+        <v>997</v>
+      </c>
+      <c r="J40" s="25">
         <f t="shared" si="77"/>
-        <v>997</v>
-      </c>
-      <c r="J40" s="25">
+        <v>5078</v>
+      </c>
+      <c r="K40" s="24">
         <f t="shared" si="78"/>
-        <v>5078</v>
-      </c>
-      <c r="K40" s="24">
-        <f t="shared" si="79"/>
         <v>804</v>
       </c>
       <c r="L40" s="35">
@@ -11054,8 +11049,8 @@
         <v>994</v>
       </c>
       <c r="F41" s="26">
-        <f t="shared" si="76"/>
-        <v>146.26692238267148</v>
+        <f t="shared" si="79"/>
+        <v>151.34448574969019</v>
       </c>
       <c r="G41" s="91">
         <f t="shared" si="69"/>
@@ -11066,15 +11061,15 @@
         <v>1.0173253925284245</v>
       </c>
       <c r="I41" s="18">
+        <f t="shared" si="76"/>
+        <v>721</v>
+      </c>
+      <c r="J41" s="22">
         <f t="shared" si="77"/>
-        <v>721</v>
-      </c>
-      <c r="J41" s="22">
+        <v>5174</v>
+      </c>
+      <c r="K41" s="26">
         <f t="shared" si="78"/>
-        <v>5174</v>
-      </c>
-      <c r="K41" s="26">
-        <f t="shared" si="79"/>
         <v>994</v>
       </c>
       <c r="L41" s="18">
@@ -11127,8 +11122,8 @@
         <v>1225</v>
       </c>
       <c r="F42" s="24">
-        <f t="shared" si="76"/>
-        <v>147.82378158844767</v>
+        <f t="shared" si="79"/>
+        <v>152.95539033457248</v>
       </c>
       <c r="G42" s="92">
         <f t="shared" si="69"/>
@@ -11139,15 +11134,15 @@
         <v>1.0106439595529537</v>
       </c>
       <c r="I42" s="35">
+        <f t="shared" si="76"/>
+        <v>439</v>
+      </c>
+      <c r="J42" s="25">
         <f t="shared" si="77"/>
-        <v>439</v>
-      </c>
-      <c r="J42" s="25">
+        <v>5234</v>
+      </c>
+      <c r="K42" s="24">
         <f t="shared" si="78"/>
-        <v>5234</v>
-      </c>
-      <c r="K42" s="24">
-        <f t="shared" si="79"/>
         <v>1225</v>
       </c>
       <c r="L42" s="35">
@@ -11200,8 +11195,8 @@
         <v>1507</v>
       </c>
       <c r="F43" s="26">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G43" s="91">
         <f t="shared" si="69"/>
@@ -11212,15 +11207,15 @@
         <v>1.0036861506055819</v>
       </c>
       <c r="I43" s="18">
+        <f t="shared" si="76"/>
+        <v>145</v>
+      </c>
+      <c r="J43" s="22">
         <f t="shared" si="77"/>
-        <v>145</v>
-      </c>
-      <c r="J43" s="22">
+        <v>5255</v>
+      </c>
+      <c r="K43" s="26">
         <f t="shared" si="78"/>
-        <v>5255</v>
-      </c>
-      <c r="K43" s="26">
-        <f t="shared" si="79"/>
         <v>1507</v>
       </c>
       <c r="L43" s="18">
@@ -11273,8 +11268,8 @@
         <v>1851</v>
       </c>
       <c r="F44" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G44" s="92">
         <f t="shared" si="69"/>
@@ -11285,15 +11280,15 @@
         <v>1</v>
       </c>
       <c r="I44" s="35">
+        <f t="shared" si="76"/>
+        <v>-169</v>
+      </c>
+      <c r="J44" s="25">
         <f t="shared" si="77"/>
-        <v>-169</v>
-      </c>
-      <c r="J44" s="25">
+        <v>5234</v>
+      </c>
+      <c r="K44" s="24">
         <f t="shared" si="78"/>
-        <v>5234</v>
-      </c>
-      <c r="K44" s="24">
-        <f t="shared" si="79"/>
         <v>1851</v>
       </c>
       <c r="L44" s="35">
@@ -11346,8 +11341,8 @@
         <v>2270</v>
       </c>
       <c r="F45" s="26">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G45" s="91">
         <f t="shared" si="69"/>
@@ -11358,15 +11353,15 @@
         <v>1</v>
       </c>
       <c r="I45" s="36">
+        <f t="shared" si="76"/>
+        <v>-514</v>
+      </c>
+      <c r="J45" s="13">
         <f t="shared" si="77"/>
-        <v>-514</v>
-      </c>
-      <c r="J45" s="13">
+        <v>5167</v>
+      </c>
+      <c r="K45" s="23">
         <f t="shared" si="78"/>
-        <v>5167</v>
-      </c>
-      <c r="K45" s="23">
-        <f t="shared" si="79"/>
         <v>2270</v>
       </c>
       <c r="L45" s="36">
@@ -11419,8 +11414,8 @@
         <v>2780</v>
       </c>
       <c r="F46" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G46" s="92">
         <f t="shared" si="69"/>
@@ -11431,15 +11426,15 @@
         <v>1</v>
       </c>
       <c r="I46" s="35">
+        <f t="shared" si="76"/>
+        <v>-904</v>
+      </c>
+      <c r="J46" s="25">
         <f t="shared" si="77"/>
-        <v>-904</v>
-      </c>
-      <c r="J46" s="25">
+        <v>5052</v>
+      </c>
+      <c r="K46" s="24">
         <f t="shared" si="78"/>
-        <v>5052</v>
-      </c>
-      <c r="K46" s="24">
-        <f t="shared" si="79"/>
         <v>2780</v>
       </c>
       <c r="L46" s="35">
@@ -11493,8 +11488,8 @@
         <v>3401</v>
       </c>
       <c r="F47" s="26">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G47" s="91">
         <f t="shared" si="69"/>
@@ -11505,15 +11500,15 @@
         <v>1</v>
       </c>
       <c r="I47" s="36">
+        <f t="shared" si="76"/>
+        <v>-1354</v>
+      </c>
+      <c r="J47" s="13">
         <f t="shared" si="77"/>
-        <v>-1354</v>
-      </c>
-      <c r="J47" s="13">
+        <v>4884</v>
+      </c>
+      <c r="K47" s="23">
         <f t="shared" si="78"/>
-        <v>4884</v>
-      </c>
-      <c r="K47" s="23">
-        <f t="shared" si="79"/>
         <v>3401</v>
       </c>
       <c r="L47" s="36">
@@ -11566,8 +11561,8 @@
         <v>4158</v>
       </c>
       <c r="F48" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G48" s="92">
         <f t="shared" si="69"/>
@@ -11578,15 +11573,15 @@
         <v>1</v>
       </c>
       <c r="I48" s="35">
+        <f t="shared" si="76"/>
+        <v>-1886</v>
+      </c>
+      <c r="J48" s="25">
         <f t="shared" si="77"/>
-        <v>-1886</v>
-      </c>
-      <c r="J48" s="25">
+        <v>4661</v>
+      </c>
+      <c r="K48" s="24">
         <f t="shared" si="78"/>
-        <v>4661</v>
-      </c>
-      <c r="K48" s="24">
-        <f t="shared" si="79"/>
         <v>4158</v>
       </c>
       <c r="L48" s="35">
@@ -11639,8 +11634,8 @@
         <v>5079</v>
       </c>
       <c r="F49" s="26">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G49" s="91">
         <f t="shared" si="69"/>
@@ -11651,15 +11646,15 @@
         <v>1</v>
       </c>
       <c r="I49" s="18">
+        <f t="shared" si="76"/>
+        <v>-2528</v>
+      </c>
+      <c r="J49" s="22">
         <f t="shared" si="77"/>
-        <v>-2528</v>
-      </c>
-      <c r="J49" s="22">
+        <v>4379</v>
+      </c>
+      <c r="K49" s="26">
         <f t="shared" si="78"/>
-        <v>4379</v>
-      </c>
-      <c r="K49" s="26">
-        <f t="shared" si="79"/>
         <v>5079</v>
       </c>
       <c r="L49" s="18">
@@ -11712,8 +11707,8 @@
         <v>6201</v>
       </c>
       <c r="F50" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G50" s="92">
         <f t="shared" si="69"/>
@@ -11724,15 +11719,15 @@
         <v>1</v>
       </c>
       <c r="I50" s="35">
+        <f t="shared" si="76"/>
+        <v>-3314</v>
+      </c>
+      <c r="J50" s="25">
         <f t="shared" si="77"/>
-        <v>-3314</v>
-      </c>
-      <c r="J50" s="25">
+        <v>4038</v>
+      </c>
+      <c r="K50" s="24">
         <f t="shared" si="78"/>
-        <v>4038</v>
-      </c>
-      <c r="K50" s="24">
-        <f t="shared" si="79"/>
         <v>6201</v>
       </c>
       <c r="L50" s="35">
@@ -11785,8 +11780,8 @@
         <v>7567</v>
       </c>
       <c r="F51" s="26">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G51" s="91">
         <f t="shared" si="69"/>
@@ -11797,15 +11792,15 @@
         <v>1</v>
       </c>
       <c r="I51" s="18">
+        <f t="shared" si="76"/>
+        <v>-4292</v>
+      </c>
+      <c r="J51" s="22">
         <f t="shared" si="77"/>
-        <v>-4292</v>
-      </c>
-      <c r="J51" s="22">
+        <v>3640</v>
+      </c>
+      <c r="K51" s="26">
         <f t="shared" si="78"/>
-        <v>3640</v>
-      </c>
-      <c r="K51" s="26">
-        <f t="shared" si="79"/>
         <v>7567</v>
       </c>
       <c r="L51" s="18">
@@ -11858,8 +11853,8 @@
         <v>9231</v>
       </c>
       <c r="F52" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G52" s="92">
         <f t="shared" si="69"/>
@@ -11870,15 +11865,15 @@
         <v>1</v>
       </c>
       <c r="I52" s="35">
+        <f t="shared" si="76"/>
+        <v>-5521</v>
+      </c>
+      <c r="J52" s="4">
         <f t="shared" si="77"/>
-        <v>-5521</v>
-      </c>
-      <c r="J52" s="4">
+        <v>3190</v>
+      </c>
+      <c r="K52" s="24">
         <f t="shared" si="78"/>
-        <v>3190</v>
-      </c>
-      <c r="K52" s="24">
-        <f t="shared" si="79"/>
         <v>9231</v>
       </c>
       <c r="L52" s="35">
@@ -11931,8 +11926,8 @@
         <v>11258</v>
       </c>
       <c r="F53" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G53" s="91">
         <f t="shared" si="69"/>
@@ -11943,15 +11938,15 @@
         <v>1</v>
       </c>
       <c r="I53" s="8">
+        <f t="shared" si="76"/>
+        <v>-7080</v>
+      </c>
+      <c r="J53" s="3">
         <f t="shared" si="77"/>
-        <v>-7080</v>
-      </c>
-      <c r="J53" s="3">
+        <v>2702</v>
+      </c>
+      <c r="K53" s="37">
         <f t="shared" si="78"/>
-        <v>2702</v>
-      </c>
-      <c r="K53" s="37">
-        <f t="shared" si="79"/>
         <v>11258</v>
       </c>
       <c r="L53" s="8">
@@ -12004,8 +11999,8 @@
         <v>13727</v>
       </c>
       <c r="F54" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G54" s="92">
         <f t="shared" si="69"/>
@@ -12016,15 +12011,15 @@
         <v>1</v>
       </c>
       <c r="I54" s="7">
+        <f t="shared" si="76"/>
+        <v>-9069</v>
+      </c>
+      <c r="J54" s="2">
         <f t="shared" si="77"/>
-        <v>-9069</v>
-      </c>
-      <c r="J54" s="2">
+        <v>2194</v>
+      </c>
+      <c r="K54" s="34">
         <f t="shared" si="78"/>
-        <v>2194</v>
-      </c>
-      <c r="K54" s="34">
-        <f t="shared" si="79"/>
         <v>13727</v>
       </c>
       <c r="L54" s="7">
@@ -12077,8 +12072,8 @@
         <v>16735</v>
       </c>
       <c r="F55" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G55" s="91">
         <f t="shared" si="69"/>
@@ -12089,15 +12084,15 @@
         <v>1</v>
       </c>
       <c r="I55" s="8">
+        <f t="shared" si="76"/>
+        <v>-11611</v>
+      </c>
+      <c r="J55" s="3">
         <f t="shared" si="77"/>
-        <v>-11611</v>
-      </c>
-      <c r="J55" s="3">
+        <v>1692</v>
+      </c>
+      <c r="K55" s="37">
         <f t="shared" si="78"/>
-        <v>1692</v>
-      </c>
-      <c r="K55" s="37">
-        <f t="shared" si="79"/>
         <v>16735</v>
       </c>
       <c r="L55" s="8">
@@ -12150,8 +12145,8 @@
         <v>20400</v>
       </c>
       <c r="F56" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G56" s="92">
         <f t="shared" si="69"/>
@@ -12162,15 +12157,15 @@
         <v>1</v>
       </c>
       <c r="I56" s="7">
+        <f t="shared" si="76"/>
+        <v>-14856</v>
+      </c>
+      <c r="J56" s="2">
         <f t="shared" si="77"/>
-        <v>-14856</v>
-      </c>
-      <c r="J56" s="2">
+        <v>1226</v>
+      </c>
+      <c r="K56" s="34">
         <f t="shared" si="78"/>
-        <v>1226</v>
-      </c>
-      <c r="K56" s="34">
-        <f t="shared" si="79"/>
         <v>20400</v>
       </c>
       <c r="L56" s="7">
@@ -12223,8 +12218,8 @@
         <v>24866</v>
       </c>
       <c r="F57" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G57" s="91">
         <f t="shared" si="69"/>
@@ -12235,15 +12230,15 @@
         <v>1</v>
       </c>
       <c r="I57" s="8">
+        <f t="shared" si="76"/>
+        <v>-18978</v>
+      </c>
+      <c r="J57" s="3">
         <f t="shared" si="77"/>
-        <v>-18978</v>
-      </c>
-      <c r="J57" s="3">
+        <v>825</v>
+      </c>
+      <c r="K57" s="37">
         <f t="shared" si="78"/>
-        <v>825</v>
-      </c>
-      <c r="K57" s="37">
-        <f t="shared" si="79"/>
         <v>24866</v>
       </c>
       <c r="L57" s="8">
@@ -12296,8 +12291,8 @@
         <v>30308</v>
       </c>
       <c r="F58" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G58" s="92">
         <f t="shared" si="69"/>
@@ -12308,15 +12303,15 @@
         <v>1</v>
       </c>
       <c r="I58" s="7">
+        <f t="shared" si="76"/>
+        <v>-24175</v>
+      </c>
+      <c r="J58" s="2">
         <f t="shared" si="77"/>
-        <v>-24175</v>
-      </c>
-      <c r="J58" s="2">
+        <v>510</v>
+      </c>
+      <c r="K58" s="34">
         <f t="shared" si="78"/>
-        <v>510</v>
-      </c>
-      <c r="K58" s="34">
-        <f t="shared" si="79"/>
         <v>30308</v>
       </c>
       <c r="L58" s="7">
@@ -12369,8 +12364,8 @@
         <v>36941</v>
       </c>
       <c r="F59" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G59" s="91">
         <f t="shared" si="69"/>
@@ -12442,8 +12437,8 @@
         <v>45025</v>
       </c>
       <c r="F60" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G60" s="92">
         <f t="shared" si="69"/>
@@ -12515,8 +12510,8 @@
         <v>54878</v>
       </c>
       <c r="F61" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G61" s="91">
         <f t="shared" si="69"/>
@@ -12588,8 +12583,8 @@
         <v>66887</v>
       </c>
       <c r="F62" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G62" s="92">
         <f t="shared" si="69"/>
@@ -12661,8 +12656,8 @@
         <v>81524</v>
       </c>
       <c r="F63" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G63" s="91">
         <f t="shared" si="69"/>
@@ -12734,8 +12729,8 @@
         <v>99364</v>
       </c>
       <c r="F64" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G64" s="92">
         <f t="shared" si="69"/>
@@ -12807,8 +12802,8 @@
         <v>121108</v>
       </c>
       <c r="F65" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G65" s="91">
         <f t="shared" si="69"/>
@@ -12880,8 +12875,8 @@
         <v>147610</v>
       </c>
       <c r="F66" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G66" s="92">
         <f t="shared" si="69"/>
@@ -12953,8 +12948,8 @@
         <v>179912</v>
       </c>
       <c r="F67" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G67" s="91">
         <f t="shared" si="69"/>
@@ -13026,8 +13021,8 @@
         <v>219282</v>
       </c>
       <c r="F68" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G68" s="92">
         <f t="shared" ref="G68:G99" si="92">D68/U$3</f>
@@ -13099,8 +13094,8 @@
         <v>267268</v>
       </c>
       <c r="F69" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G69" s="91">
         <f t="shared" si="92"/>
@@ -13172,8 +13167,8 @@
         <v>325755</v>
       </c>
       <c r="F70" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G70" s="92">
         <f t="shared" si="92"/>
@@ -13245,8 +13240,8 @@
         <v>397041</v>
       </c>
       <c r="F71" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G71" s="91">
         <f t="shared" si="92"/>
@@ -13318,8 +13313,8 @@
         <v>483927</v>
       </c>
       <c r="F72" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G72" s="92">
         <f t="shared" si="92"/>
@@ -13391,8 +13386,8 @@
         <v>589826</v>
       </c>
       <c r="F73" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G73" s="91">
         <f t="shared" si="92"/>
@@ -13464,8 +13459,8 @@
         <v>718900</v>
       </c>
       <c r="F74" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G74" s="92">
         <f t="shared" si="92"/>
@@ -13537,8 +13532,8 @@
         <v>876220</v>
       </c>
       <c r="F75" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G75" s="91">
         <f t="shared" si="92"/>
@@ -13610,8 +13605,8 @@
         <v>1067967</v>
       </c>
       <c r="F76" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G76" s="92">
         <f t="shared" si="92"/>
@@ -13683,8 +13678,8 @@
         <v>1301675</v>
       </c>
       <c r="F77" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G77" s="91">
         <f t="shared" si="92"/>
@@ -13756,8 +13751,8 @@
         <v>1586526</v>
       </c>
       <c r="F78" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G78" s="92">
         <f t="shared" si="92"/>
@@ -13829,8 +13824,8 @@
         <v>1933712</v>
       </c>
       <c r="F79" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G79" s="91">
         <f t="shared" si="92"/>
@@ -13902,8 +13897,8 @@
         <v>2356875</v>
       </c>
       <c r="F80" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G80" s="92">
         <f t="shared" si="92"/>
@@ -13975,8 +13970,8 @@
         <v>2872640</v>
       </c>
       <c r="F81" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G81" s="91">
         <f t="shared" si="92"/>
@@ -14048,8 +14043,8 @@
         <v>3501273</v>
       </c>
       <c r="F82" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G82" s="92">
         <f t="shared" si="92"/>
@@ -14121,8 +14116,8 @@
         <v>4267472</v>
       </c>
       <c r="F83" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G83" s="91">
         <f t="shared" si="92"/>
@@ -14194,8 +14189,8 @@
         <v>5201342</v>
       </c>
       <c r="F84" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G84" s="92">
         <f t="shared" si="92"/>
@@ -14267,8 +14262,8 @@
         <v>6339575</v>
       </c>
       <c r="F85" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G85" s="91">
         <f t="shared" si="92"/>
@@ -14340,8 +14335,8 @@
         <v>7726893</v>
       </c>
       <c r="F86" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G86" s="92">
         <f t="shared" si="92"/>
@@ -14413,8 +14408,8 @@
         <v>9417804</v>
       </c>
       <c r="F87" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G87" s="91">
         <f t="shared" si="92"/>
@@ -14486,8 +14481,8 @@
         <v>11478745</v>
       </c>
       <c r="F88" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G88" s="92">
         <f t="shared" si="92"/>
@@ -14559,8 +14554,8 @@
         <v>13990691</v>
       </c>
       <c r="F89" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G89" s="91">
         <f t="shared" si="92"/>
@@ -14632,8 +14627,8 @@
         <v>17052338</v>
       </c>
       <c r="F90" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G90" s="92">
         <f t="shared" si="92"/>
@@ -14705,8 +14700,8 @@
         <v>20783979</v>
       </c>
       <c r="F91" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G91" s="91">
         <f t="shared" si="92"/>
@@ -14778,8 +14773,8 @@
         <v>25332232</v>
       </c>
       <c r="F92" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G92" s="92">
         <f t="shared" si="92"/>
@@ -14851,8 +14846,8 @@
         <v>30875800</v>
       </c>
       <c r="F93" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G93" s="91">
         <f t="shared" si="92"/>
@@ -14924,8 +14919,8 @@
         <v>37632493</v>
       </c>
       <c r="F94" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G94" s="92">
         <f t="shared" si="92"/>
@@ -14997,8 +14992,8 @@
         <v>45867784</v>
       </c>
       <c r="F95" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G95" s="91">
         <f t="shared" si="92"/>
@@ -15070,8 +15065,8 @@
         <v>55905241</v>
       </c>
       <c r="F96" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G96" s="92">
         <f t="shared" si="92"/>
@@ -15143,8 +15138,8 @@
         <v>68139241</v>
       </c>
       <c r="F97" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G97" s="91">
         <f t="shared" si="92"/>
@@ -15216,8 +15211,8 @@
         <v>83050464</v>
       </c>
       <c r="F98" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G98" s="92">
         <f t="shared" si="92"/>
@@ -15289,8 +15284,8 @@
         <v>101224778</v>
       </c>
       <c r="F99" s="23">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G99" s="91">
         <f t="shared" si="92"/>
@@ -15362,8 +15357,8 @@
         <v>123376261</v>
       </c>
       <c r="F100" s="24">
-        <f t="shared" si="76"/>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G100" s="92">
         <f t="shared" ref="G100:G131" si="106">D100/U$3</f>
@@ -15435,8 +15430,8 @@
         <v>150375254</v>
       </c>
       <c r="F101" s="23">
-        <f t="shared" ref="F101:F164" si="107">D101*(F$35/D$35)</f>
-        <v>148.36868231046932</v>
+        <f t="shared" si="79"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G101" s="91">
         <f t="shared" si="106"/>
@@ -15508,8 +15503,8 @@
         <v>183282561</v>
       </c>
       <c r="F102" s="24">
-        <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <f t="shared" ref="F102:F165" si="107">D102*(F$36/D$36)</f>
+        <v>153.51920693928128</v>
       </c>
       <c r="G102" s="92">
         <f t="shared" si="106"/>
@@ -15582,7 +15577,7 @@
       </c>
       <c r="F103" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G103" s="91">
         <f t="shared" si="106"/>
@@ -15655,7 +15650,7 @@
       </c>
       <c r="F104" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G104" s="92">
         <f t="shared" si="106"/>
@@ -15728,7 +15723,7 @@
       </c>
       <c r="F105" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G105" s="91">
         <f t="shared" si="106"/>
@@ -15801,7 +15796,7 @@
       </c>
       <c r="F106" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G106" s="92">
         <f t="shared" si="106"/>
@@ -15874,7 +15869,7 @@
       </c>
       <c r="F107" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G107" s="91">
         <f t="shared" si="106"/>
@@ -15947,7 +15942,7 @@
       </c>
       <c r="F108" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G108" s="92">
         <f t="shared" si="106"/>
@@ -16020,7 +16015,7 @@
       </c>
       <c r="F109" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G109" s="91">
         <f t="shared" si="106"/>
@@ -16093,7 +16088,7 @@
       </c>
       <c r="F110" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G110" s="92">
         <f t="shared" si="106"/>
@@ -16166,7 +16161,7 @@
       </c>
       <c r="F111" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G111" s="91">
         <f t="shared" si="106"/>
@@ -16239,7 +16234,7 @@
       </c>
       <c r="F112" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G112" s="92">
         <f t="shared" si="106"/>
@@ -16312,7 +16307,7 @@
       </c>
       <c r="F113" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G113" s="91">
         <f t="shared" si="106"/>
@@ -16385,7 +16380,7 @@
       </c>
       <c r="F114" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G114" s="92">
         <f t="shared" si="106"/>
@@ -16458,7 +16453,7 @@
       </c>
       <c r="F115" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G115" s="91">
         <f t="shared" si="106"/>
@@ -16531,7 +16526,7 @@
       </c>
       <c r="F116" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G116" s="92">
         <f t="shared" si="106"/>
@@ -16604,7 +16599,7 @@
       </c>
       <c r="F117" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G117" s="91">
         <f t="shared" si="106"/>
@@ -16677,7 +16672,7 @@
       </c>
       <c r="F118" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G118" s="92">
         <f t="shared" si="106"/>
@@ -16750,7 +16745,7 @@
       </c>
       <c r="F119" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G119" s="91">
         <f t="shared" si="106"/>
@@ -16823,7 +16818,7 @@
       </c>
       <c r="F120" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G120" s="92">
         <f t="shared" si="106"/>
@@ -16896,7 +16891,7 @@
       </c>
       <c r="F121" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G121" s="91">
         <f t="shared" si="106"/>
@@ -16969,7 +16964,7 @@
       </c>
       <c r="F122" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G122" s="92">
         <f t="shared" si="106"/>
@@ -17042,7 +17037,7 @@
       </c>
       <c r="F123" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G123" s="91">
         <f t="shared" si="106"/>
@@ -17115,7 +17110,7 @@
       </c>
       <c r="F124" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G124" s="92">
         <f t="shared" si="106"/>
@@ -17188,7 +17183,7 @@
       </c>
       <c r="F125" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G125" s="91">
         <f t="shared" si="106"/>
@@ -17261,7 +17256,7 @@
       </c>
       <c r="F126" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G126" s="92">
         <f t="shared" si="106"/>
@@ -17334,7 +17329,7 @@
       </c>
       <c r="F127" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G127" s="91">
         <f t="shared" si="106"/>
@@ -17407,7 +17402,7 @@
       </c>
       <c r="F128" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G128" s="92">
         <f t="shared" si="106"/>
@@ -17480,7 +17475,7 @@
       </c>
       <c r="F129" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G129" s="91">
         <f t="shared" si="106"/>
@@ -17553,7 +17548,7 @@
       </c>
       <c r="F130" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G130" s="92">
         <f t="shared" si="106"/>
@@ -17626,7 +17621,7 @@
       </c>
       <c r="F131" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G131" s="91">
         <f t="shared" si="106"/>
@@ -17699,7 +17694,7 @@
       </c>
       <c r="F132" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G132" s="92">
         <f t="shared" ref="G132:G163" si="120">D132/U$3</f>
@@ -17772,7 +17767,7 @@
       </c>
       <c r="F133" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G133" s="91">
         <f t="shared" si="120"/>
@@ -17845,7 +17840,7 @@
       </c>
       <c r="F134" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G134" s="92">
         <f t="shared" si="120"/>
@@ -17918,7 +17913,7 @@
       </c>
       <c r="F135" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G135" s="91">
         <f t="shared" si="120"/>
@@ -17991,7 +17986,7 @@
       </c>
       <c r="F136" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G136" s="92">
         <f t="shared" si="120"/>
@@ -18064,7 +18059,7 @@
       </c>
       <c r="F137" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G137" s="91">
         <f t="shared" si="120"/>
@@ -18137,7 +18132,7 @@
       </c>
       <c r="F138" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G138" s="92">
         <f t="shared" si="120"/>
@@ -18210,7 +18205,7 @@
       </c>
       <c r="F139" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G139" s="91">
         <f t="shared" si="120"/>
@@ -18283,7 +18278,7 @@
       </c>
       <c r="F140" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G140" s="92">
         <f t="shared" si="120"/>
@@ -18356,7 +18351,7 @@
       </c>
       <c r="F141" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G141" s="91">
         <f t="shared" si="120"/>
@@ -18429,7 +18424,7 @@
       </c>
       <c r="F142" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G142" s="92">
         <f t="shared" si="120"/>
@@ -18502,7 +18497,7 @@
       </c>
       <c r="F143" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G143" s="91">
         <f t="shared" si="120"/>
@@ -18575,7 +18570,7 @@
       </c>
       <c r="F144" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G144" s="92">
         <f t="shared" si="120"/>
@@ -18648,7 +18643,7 @@
       </c>
       <c r="F145" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G145" s="91">
         <f t="shared" si="120"/>
@@ -18721,7 +18716,7 @@
       </c>
       <c r="F146" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G146" s="92">
         <f t="shared" si="120"/>
@@ -18794,7 +18789,7 @@
       </c>
       <c r="F147" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G147" s="91">
         <f t="shared" si="120"/>
@@ -18867,7 +18862,7 @@
       </c>
       <c r="F148" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G148" s="92">
         <f t="shared" si="120"/>
@@ -18940,7 +18935,7 @@
       </c>
       <c r="F149" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G149" s="91">
         <f t="shared" si="120"/>
@@ -19013,7 +19008,7 @@
       </c>
       <c r="F150" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G150" s="92">
         <f t="shared" si="120"/>
@@ -19086,7 +19081,7 @@
       </c>
       <c r="F151" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G151" s="91">
         <f t="shared" si="120"/>
@@ -19159,7 +19154,7 @@
       </c>
       <c r="F152" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G152" s="92">
         <f t="shared" si="120"/>
@@ -19232,7 +19227,7 @@
       </c>
       <c r="F153" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G153" s="91">
         <f t="shared" si="120"/>
@@ -19305,7 +19300,7 @@
       </c>
       <c r="F154" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G154" s="92">
         <f t="shared" si="120"/>
@@ -19378,7 +19373,7 @@
       </c>
       <c r="F155" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G155" s="91">
         <f t="shared" si="120"/>
@@ -19451,7 +19446,7 @@
       </c>
       <c r="F156" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G156" s="92">
         <f t="shared" si="120"/>
@@ -19524,7 +19519,7 @@
       </c>
       <c r="F157" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G157" s="91">
         <f t="shared" si="120"/>
@@ -19597,7 +19592,7 @@
       </c>
       <c r="F158" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G158" s="92">
         <f t="shared" si="120"/>
@@ -19670,7 +19665,7 @@
       </c>
       <c r="F159" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G159" s="91">
         <f t="shared" si="120"/>
@@ -19743,7 +19738,7 @@
       </c>
       <c r="F160" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G160" s="92">
         <f t="shared" si="120"/>
@@ -19816,7 +19811,7 @@
       </c>
       <c r="F161" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G161" s="91">
         <f t="shared" si="120"/>
@@ -19889,7 +19884,7 @@
       </c>
       <c r="F162" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G162" s="92">
         <f t="shared" si="120"/>
@@ -19962,7 +19957,7 @@
       </c>
       <c r="F163" s="23">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G163" s="91">
         <f t="shared" si="120"/>
@@ -20035,7 +20030,7 @@
       </c>
       <c r="F164" s="24">
         <f t="shared" si="107"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G164" s="92">
         <f t="shared" ref="G164:G198" si="134">D164/U$3</f>
@@ -20107,8 +20102,8 @@
         <v>47603814131237</v>
       </c>
       <c r="F165" s="23">
-        <f t="shared" ref="F165:F204" si="135">D165*(F$35/D$35)</f>
-        <v>148.36868231046932</v>
+        <f t="shared" si="107"/>
+        <v>153.51920693928128</v>
       </c>
       <c r="G165" s="91">
         <f t="shared" si="134"/>
@@ -20180,8 +20175,8 @@
         <v>58021175382482</v>
       </c>
       <c r="F166" s="24">
-        <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <f t="shared" ref="F166:F204" si="135">D166*(F$36/D$36)</f>
+        <v>153.51920693928128</v>
       </c>
       <c r="G166" s="92">
         <f t="shared" si="134"/>
@@ -20254,7 +20249,7 @@
       </c>
       <c r="F167" s="23">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G167" s="91">
         <f t="shared" si="134"/>
@@ -20327,7 +20322,7 @@
       </c>
       <c r="F168" s="24">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G168" s="92">
         <f t="shared" si="134"/>
@@ -20400,7 +20395,7 @@
       </c>
       <c r="F169" s="23">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G169" s="91">
         <f t="shared" si="134"/>
@@ -20473,7 +20468,7 @@
       </c>
       <c r="F170" s="24">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G170" s="92">
         <f t="shared" si="134"/>
@@ -20546,7 +20541,7 @@
       </c>
       <c r="F171" s="23">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G171" s="91">
         <f t="shared" si="134"/>
@@ -20619,7 +20614,7 @@
       </c>
       <c r="F172" s="24">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G172" s="92">
         <f t="shared" si="134"/>
@@ -20692,7 +20687,7 @@
       </c>
       <c r="F173" s="23">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G173" s="91">
         <f t="shared" si="134"/>
@@ -20765,7 +20760,7 @@
       </c>
       <c r="F174" s="24">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G174" s="92">
         <f t="shared" si="134"/>
@@ -20838,7 +20833,7 @@
       </c>
       <c r="F175" s="23">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G175" s="91">
         <f t="shared" si="134"/>
@@ -20911,7 +20906,7 @@
       </c>
       <c r="F176" s="24">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G176" s="92">
         <f t="shared" si="134"/>
@@ -20984,7 +20979,7 @@
       </c>
       <c r="F177" s="23">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G177" s="91">
         <f t="shared" si="134"/>
@@ -21057,7 +21052,7 @@
       </c>
       <c r="F178" s="24">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G178" s="92">
         <f t="shared" si="134"/>
@@ -21130,7 +21125,7 @@
       </c>
       <c r="F179" s="23">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G179" s="91">
         <f t="shared" si="134"/>
@@ -21203,7 +21198,7 @@
       </c>
       <c r="F180" s="24">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G180" s="92">
         <f t="shared" si="134"/>
@@ -21276,7 +21271,7 @@
       </c>
       <c r="F181" s="23">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G181" s="91">
         <f t="shared" si="134"/>
@@ -21349,7 +21344,7 @@
       </c>
       <c r="F182" s="24">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G182" s="92">
         <f t="shared" si="134"/>
@@ -21422,7 +21417,7 @@
       </c>
       <c r="F183" s="23">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G183" s="91">
         <f t="shared" si="134"/>
@@ -21495,7 +21490,7 @@
       </c>
       <c r="F184" s="24">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G184" s="92">
         <f t="shared" si="134"/>
@@ -21568,7 +21563,7 @@
       </c>
       <c r="F185" s="23">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G185" s="91">
         <f t="shared" si="134"/>
@@ -21641,7 +21636,7 @@
       </c>
       <c r="F186" s="24">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G186" s="92">
         <f t="shared" si="134"/>
@@ -21714,7 +21709,7 @@
       </c>
       <c r="F187" s="23">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G187" s="91">
         <f t="shared" si="134"/>
@@ -21787,7 +21782,7 @@
       </c>
       <c r="F188" s="24">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G188" s="92">
         <f t="shared" si="134"/>
@@ -21860,7 +21855,7 @@
       </c>
       <c r="F189" s="23">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G189" s="91">
         <f t="shared" si="134"/>
@@ -21933,7 +21928,7 @@
       </c>
       <c r="F190" s="24">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G190" s="92">
         <f t="shared" si="134"/>
@@ -22006,7 +22001,7 @@
       </c>
       <c r="F191" s="23">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G191" s="91">
         <f t="shared" si="134"/>
@@ -22079,7 +22074,7 @@
       </c>
       <c r="F192" s="24">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G192" s="92">
         <f t="shared" si="134"/>
@@ -22152,7 +22147,7 @@
       </c>
       <c r="F193" s="23">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G193" s="91">
         <f t="shared" si="134"/>
@@ -22225,7 +22220,7 @@
       </c>
       <c r="F194" s="24">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G194" s="92">
         <f t="shared" si="134"/>
@@ -22298,7 +22293,7 @@
       </c>
       <c r="F195" s="23">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G195" s="91">
         <f t="shared" si="134"/>
@@ -22371,7 +22366,7 @@
       </c>
       <c r="F196" s="24">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G196" s="92">
         <f t="shared" si="134"/>
@@ -22444,7 +22439,7 @@
       </c>
       <c r="F197" s="23">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G197" s="91">
         <f t="shared" si="134"/>
@@ -22517,7 +22512,7 @@
       </c>
       <c r="F198" s="94">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G198" s="93">
         <f t="shared" si="134"/>
@@ -22590,7 +22585,7 @@
       </c>
       <c r="F199" s="23">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G199" s="91">
         <f t="shared" ref="G199:G202" si="151">D199/U$3</f>
@@ -22663,7 +22658,7 @@
       </c>
       <c r="F200" s="24">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G200" s="92">
         <f t="shared" si="151"/>
@@ -22736,7 +22731,7 @@
       </c>
       <c r="F201" s="23">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G201" s="91">
         <f t="shared" si="151"/>
@@ -22809,7 +22804,7 @@
       </c>
       <c r="F202" s="24">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G202" s="92">
         <f t="shared" si="151"/>
@@ -22882,7 +22877,7 @@
       </c>
       <c r="F203" s="23">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G203" s="91">
         <f>D203/U$3</f>
@@ -22955,7 +22950,7 @@
       </c>
       <c r="F204" s="120">
         <f t="shared" si="135"/>
-        <v>148.36868231046932</v>
+        <v>153.51920693928128</v>
       </c>
       <c r="G204" s="121">
         <f t="shared" ref="G204" si="160">D204/U$3</f>
